--- a/archivos-dp/parametros_empresa_dp.xlsx
+++ b/archivos-dp/parametros_empresa_dp.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="horario" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,6 +15,11 @@
     <sheet name="sw" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="emisor" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="zonas" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="encargado_norte" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="encargado_sur" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="encargado_oriente" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="encargado_occidente" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="usuarios" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="101">
   <si>
     <t xml:space="preserve">HORA</t>
   </si>
@@ -94,19 +99,19 @@
     <t xml:space="preserve">IDCALENDAR</t>
   </si>
   <si>
+    <t xml:space="preserve">Hacia el Aeropuerto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">617d2384ffee7bf87962b771b740e372fc7d8b1e1bd5db386d3c38b0dbf0bce5@group.calendar.google.com </t>
+  </si>
+  <si>
     <t xml:space="preserve">Desde el Aeropuerto</t>
   </si>
   <si>
-    <t xml:space="preserve">35.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47dce9ed9ef8d647cec99b32edff72c2db7b21ca5a0df32e5b56bd18bac1c416@group.calendar.google.com </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hacia el  Aeropuerto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f61a34f12444bdfc2e26ac1381b9499fb178c0d1f40a3dc1dfa34b95eec47146@group.calendar.google.com</t>
+    <t xml:space="preserve">28907ee879da61f67b82a7af31f161bddc00760d22f951a6691994451038b7d7@group.calendar.google.com </t>
   </si>
   <si>
     <t xml:space="preserve">ENCARGADOS</t>
@@ -283,6 +288,9 @@
     <t xml:space="preserve">dpdelta24@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Encargado25</t>
+  </si>
+  <si>
     <t xml:space="preserve">dpdelta25@gmail.com</t>
   </si>
   <si>
@@ -292,10 +300,7 @@
     <t xml:space="preserve">valor</t>
   </si>
   <si>
-    <t xml:space="preserve">Desde Aeropuerto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hacia Aeropuerto</t>
+    <t xml:space="preserve">Hacia el Aeropuerto </t>
   </si>
   <si>
     <t xml:space="preserve">EMPRESA</t>
@@ -307,7 +312,7 @@
     <t xml:space="preserve">True</t>
   </si>
   <si>
-    <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1fx7i_GmqdPns3nLCV8zYWBW_x3I3PLfGadTN3jwgeNU/edit?gid=0#gid=0</t>
+    <t xml:space="preserve">https://docs.google.com/spreadsheets/d/18Xzq0almiDk740OyywLTtj3gGXLA20AFHLZaAqZzEGI/edit?gid=0#gid=0</t>
   </si>
   <si>
     <t xml:space="preserve">NOMBRE</t>
@@ -335,11 +340,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="hh:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="#,##0"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -441,16 +444,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -466,10 +465,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -478,7 +473,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -562,10 +557,10 @@
   <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -573,22 +568,22 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -597,57 +592,57 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -669,6 +664,253 @@
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="dpdelta15@gmail.com"/>
+    <hyperlink ref="B3" r:id="rId2" display="dpdelta16@gmail.com"/>
+    <hyperlink ref="B4" r:id="rId3" display="dpdelta17@gmail.com"/>
+    <hyperlink ref="B5" r:id="rId4" display="dpdelta18@gmail.com"/>
+    <hyperlink ref="B6" r:id="rId5" display="dpdelta19@gmail.com"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffPágina &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="dpdelta20@gmail.com"/>
+    <hyperlink ref="B3" r:id="rId2" display="dpdelta21@gmail.com"/>
+    <hyperlink ref="B4" r:id="rId3" display="dpdelta22@gmail.com"/>
+    <hyperlink ref="B5" r:id="rId4" display="dpdelta23@gmail.com"/>
+    <hyperlink ref="B6" r:id="rId5" display="dpdelta24@gmail.com"/>
+    <hyperlink ref="B7" r:id="rId6" display="dpdelta25@gmail.com"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffPágina &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffPágina &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -681,55 +923,51 @@
   <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="22.81"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="12.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="86.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="22.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="86.93"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="6"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="6"/>
-    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -757,344 +995,344 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="20.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="23.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="20.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="23.92"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="2" t="n">
         <v>3200000000</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="2" t="n">
         <v>3205511091</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="2" t="n">
         <v>3200000002</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="2" t="n">
         <v>3200000003</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="2" t="n">
         <v>3200000004</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B26" s="7" t="s">
+      <c r="A26" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="B26" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1145,36 +1383,36 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="15.89"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="13.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="B1" s="7" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="9" t="n">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="7" t="n">
         <v>35000</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="9" t="n">
+      <c r="B3" s="7" t="n">
         <v>35000</v>
       </c>
     </row>
@@ -1202,28 +1440,28 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="96.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="96.11"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>93</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" location="gid=0" display="https://docs.google.com/spreadsheets/d/1fx7i_GmqdPns3nLCV8zYWBW_x3I3PLfGadTN3jwgeNU/edit?gid=0#gid=0"/>
+    <hyperlink ref="B2" r:id="rId1" location="gid=0" display="https://docs.google.com/spreadsheets/d/18Xzq0almiDk740OyywLTtj3gGXLA20AFHLZaAqZzEGI/edit?gid=0#gid=0"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1243,41 +1481,41 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="13.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="10.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="18.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="13.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="10.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="18.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="2" t="n">
         <v>987654321</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1300,33 +1538,33 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1339,4 +1577,300 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffPágina &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>3200000000</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>3205511091</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>3200000002</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>3200000003</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>3200000004</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="dpdelta1@gmail.com"/>
+    <hyperlink ref="B3" r:id="rId2" display="dpdelta2@gmail.com"/>
+    <hyperlink ref="B4" r:id="rId3" display="dpdelta3@gmail.com"/>
+    <hyperlink ref="B5" r:id="rId4" display="dpdelta4@gmail.com"/>
+    <hyperlink ref="B6" r:id="rId5" display="dpdelta5@gmail.com"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffPágina &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="dpdelta6@gmail.com"/>
+    <hyperlink ref="B3" r:id="rId2" display="dpdelta7@gmail.com"/>
+    <hyperlink ref="B4" r:id="rId3" display="dpdelta8@gmail.com"/>
+    <hyperlink ref="B5" r:id="rId4" display="dpdelta9@gmail.com"/>
+    <hyperlink ref="B6" r:id="rId5" display="dpdelta10@gmail.com"/>
+    <hyperlink ref="B7" r:id="rId6" display="dpdelta11@gmail.com"/>
+    <hyperlink ref="B8" r:id="rId7" display="dpdelta12@gmail.com"/>
+    <hyperlink ref="B9" r:id="rId8" display="dpdelta13@gmail.com"/>
+    <hyperlink ref="B10" r:id="rId9" display="dpdelta14@gmail.com"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffPágina &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>